--- a/Code/Results/Cases/Case_1_161/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_161/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2689324499690997</v>
+        <v>0.1424448227877377</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.06036904936809151</v>
+        <v>0.1538830668338065</v>
       </c>
       <c r="E2">
-        <v>0.2096017892160944</v>
+        <v>0.1615681961842341</v>
       </c>
       <c r="F2">
-        <v>0.3404048155516151</v>
+        <v>0.9766215052929894</v>
       </c>
       <c r="G2">
-        <v>0.0007531109976334141</v>
+        <v>0.002421554833943978</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.4570866768691957</v>
+        <v>0.2335619647207068</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>16.22778931265907</v>
+        <v>5.60687900451768</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.428018518516893</v>
+        <v>2.47296806659557</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2347761909984456</v>
+        <v>0.1329302348927399</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.05855233551228167</v>
+        <v>0.1555917809322693</v>
       </c>
       <c r="E3">
-        <v>0.1832321640567827</v>
+        <v>0.1577078460882788</v>
       </c>
       <c r="F3">
-        <v>0.307246880689604</v>
+        <v>1.00199806685967</v>
       </c>
       <c r="G3">
-        <v>0.0007610773907776773</v>
+        <v>0.002426071402750196</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.393254543204975</v>
+        <v>0.2210698601333831</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>14.01688458277283</v>
+        <v>4.9278393971139</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.254690322211673</v>
+        <v>2.511344351416767</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2140451142059305</v>
+        <v>0.1271576539167114</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.05774189046653078</v>
+        <v>0.1567560085854325</v>
       </c>
       <c r="E4">
-        <v>0.1680474295634724</v>
+        <v>0.1555030991260651</v>
       </c>
       <c r="F4">
-        <v>0.2922796524827191</v>
+        <v>1.019011050025611</v>
       </c>
       <c r="G4">
-        <v>0.000766035943746196</v>
+        <v>0.002428976965463307</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3561041173801129</v>
+        <v>0.2136342219636447</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>12.68028674445551</v>
+        <v>4.508989111625823</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.162584972426629</v>
+        <v>2.538473015305158</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2056497619238655</v>
+        <v>0.1248228521123451</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.05748000952076637</v>
+        <v>0.1572593140157252</v>
       </c>
       <c r="E5">
-        <v>0.1620745238783599</v>
+        <v>0.1546458931454069</v>
       </c>
       <c r="F5">
-        <v>0.2873775754564392</v>
+        <v>1.026300364996601</v>
       </c>
       <c r="G5">
-        <v>0.0007680765291635706</v>
+        <v>0.002430194418517894</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3413963983392989</v>
+        <v>0.2106622849612592</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>12.1397361903305</v>
+        <v>4.337822420834954</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.128219412607535</v>
+        <v>2.550415171844747</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2042586895453411</v>
+        <v>0.1244362248811797</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.05744043495106865</v>
+        <v>0.157344629650467</v>
       </c>
       <c r="E6">
-        <v>0.1610947052348166</v>
+        <v>0.1545060354371373</v>
       </c>
       <c r="F6">
-        <v>0.2866316257858585</v>
+        <v>1.027532169282487</v>
       </c>
       <c r="G6">
-        <v>0.000768416652814725</v>
+        <v>0.002430398597274582</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3389780669559599</v>
+        <v>0.2101722855981052</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>12.05019714865225</v>
+        <v>4.309371256298647</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.122692722576858</v>
+        <v>2.552451451505618</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2139316878816828</v>
+        <v>0.1271260946575126</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.05773809185130574</v>
+        <v>0.1567626795086312</v>
       </c>
       <c r="E7">
-        <v>0.1679660525897617</v>
+        <v>0.1554913720177922</v>
       </c>
       <c r="F7">
-        <v>0.2922088894510892</v>
+        <v>1.019107918048888</v>
       </c>
       <c r="G7">
-        <v>0.0007660633793026374</v>
+        <v>0.002428993248955146</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3559041173372606</v>
+        <v>0.213593907013987</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>12.67298137436381</v>
+        <v>4.506682647289523</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.162109212493561</v>
+        <v>2.538630492544883</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2571003460056858</v>
+        <v>0.1391498514531122</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.05967390763495217</v>
+        <v>0.1544483094521283</v>
       </c>
       <c r="E8">
-        <v>0.200275902599877</v>
+        <v>0.1602025567087537</v>
       </c>
       <c r="F8">
-        <v>0.3277508673967873</v>
+        <v>0.9850720228673566</v>
       </c>
       <c r="G8">
-        <v>0.0007558458341563741</v>
+        <v>0.00242308475031481</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.4345998254991201</v>
+        <v>0.2292054767660545</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>15.46039421686342</v>
+        <v>5.373143669790153</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.365005327986069</v>
+        <v>2.485454436807942</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.344072743014749</v>
+        <v>0.1632755997721205</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.06634903661053215</v>
+        <v>0.150826009249684</v>
       </c>
       <c r="E9">
-        <v>0.273703903733086</v>
+        <v>0.1707736206860346</v>
       </c>
       <c r="F9">
-        <v>0.448646316871816</v>
+        <v>0.9298492921190089</v>
       </c>
       <c r="G9">
-        <v>0.0007361798877460516</v>
+        <v>0.002412542586825175</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.6096302978752561</v>
+        <v>0.2617234804396418</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>21.15399934506053</v>
+        <v>7.057192597014875</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.899368548120577</v>
+        <v>2.409897481932347</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4100465400387634</v>
+        <v>0.1813318817857237</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.07382270244599454</v>
+        <v>0.1487280798060482</v>
       </c>
       <c r="E10">
-        <v>0.3374518987284532</v>
+        <v>0.1793820175676686</v>
       </c>
       <c r="F10">
-        <v>0.5829749343908901</v>
+        <v>0.8965233744792727</v>
       </c>
       <c r="G10">
-        <v>0.0007216817847154779</v>
+        <v>0.002405425468884395</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.7587432795572653</v>
+        <v>0.2868410619461912</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>25.58264121069521</v>
+        <v>8.285668969970743</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.413854101316218</v>
+        <v>2.372491108661535</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4406907797474844</v>
+        <v>0.1896177386592512</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.07803283189406329</v>
+        <v>0.1478971968063263</v>
       </c>
       <c r="E11">
-        <v>0.3696990698462557</v>
+        <v>0.183488063403324</v>
       </c>
       <c r="F11">
-        <v>0.6581613113790397</v>
+        <v>0.882984249735749</v>
       </c>
       <c r="G11">
-        <v>0.0007149950931035757</v>
+        <v>0.002402322265558181</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.8334378053048255</v>
+        <v>0.2985498045417785</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>27.68257390005908</v>
+        <v>8.84274510945886</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.68565594056696</v>
+        <v>2.359534969321601</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.452404245435261</v>
+        <v>0.1927656611223512</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.07977243455768956</v>
+        <v>0.1476004258944812</v>
       </c>
       <c r="E12">
-        <v>0.382503448731434</v>
+        <v>0.1850708444095375</v>
       </c>
       <c r="F12">
-        <v>0.6891163835324434</v>
+        <v>0.8780944770312615</v>
       </c>
       <c r="G12">
-        <v>0.0007124411452466505</v>
+        <v>0.002401166346932569</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.8629799468109809</v>
+        <v>0.3030255708276286</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>28.49355409468978</v>
+        <v>9.053450656428538</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.795238121051881</v>
+        <v>2.355223417806769</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4498763578350804</v>
+        <v>0.1920872454431333</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.07939076756913721</v>
+        <v>0.1476635443611656</v>
       </c>
       <c r="E13">
-        <v>0.3797170302781865</v>
+        <v>0.1847287132261783</v>
       </c>
       <c r="F13">
-        <v>0.6823306292464011</v>
+        <v>0.8791369617478466</v>
       </c>
       <c r="G13">
-        <v>0.0007129923169041656</v>
+        <v>0.002401414442876239</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.8565565004627871</v>
+        <v>0.3020597489515637</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>28.31812725643817</v>
+        <v>9.008082317804622</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.771318747149991</v>
+        <v>2.35612536673753</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4416521489722669</v>
+        <v>0.1898765152999005</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.0781728428625641</v>
+        <v>0.1478724225541725</v>
       </c>
       <c r="E14">
-        <v>0.3707397600804185</v>
+        <v>0.1836177169223632</v>
       </c>
       <c r="F14">
-        <v>0.6606551855639609</v>
+        <v>0.8825771877054009</v>
       </c>
       <c r="G14">
-        <v>0.0007147854735601008</v>
+        <v>0.002402226783446077</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.8358412492936509</v>
+        <v>0.2989171808151525</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>27.7489540605373</v>
+        <v>8.86008489141409</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.694529809975251</v>
+        <v>2.359168275280723</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4366293995238379</v>
+        <v>0.1885237109988509</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.0774467491094839</v>
+        <v>0.1480026966300159</v>
       </c>
       <c r="E15">
-        <v>0.3653224929947072</v>
+        <v>0.1829408522572038</v>
       </c>
       <c r="F15">
-        <v>0.6477173689991886</v>
+        <v>0.8847154383446991</v>
       </c>
       <c r="G15">
-        <v>0.0007158806947757118</v>
+        <v>0.00240272686138177</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.8233255316420696</v>
+        <v>0.2969977654434786</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>27.40249392531547</v>
+        <v>8.769400232868691</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.648402809455462</v>
+        <v>2.361109909134598</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4080580731110359</v>
+        <v>0.1807918209862436</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.07356614825167185</v>
+        <v>0.1487848739149769</v>
       </c>
       <c r="E16">
-        <v>0.3354198428934367</v>
+        <v>0.1791175509937091</v>
       </c>
       <c r="F16">
-        <v>0.5783813841638761</v>
+        <v>0.8974411565003635</v>
       </c>
       <c r="G16">
-        <v>0.0007221162390317149</v>
+        <v>0.002405630964131436</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.7540213876365556</v>
+        <v>0.2860816628537037</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>25.44740303910208</v>
+        <v>8.249227768664127</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.396949364935892</v>
+        <v>2.373420445626437</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3907043959978438</v>
+        <v>0.1760669158413037</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.07141116099059275</v>
+        <v>0.1492964159502677</v>
       </c>
       <c r="E17">
-        <v>0.3179869657989371</v>
+        <v>0.1768211578577592</v>
       </c>
       <c r="F17">
-        <v>0.5397453031282282</v>
+        <v>0.9056660551924125</v>
       </c>
       <c r="G17">
-        <v>0.0007259125606298979</v>
+        <v>0.002407446869872795</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.7134338592696281</v>
+        <v>0.2794582614743746</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>24.27210577794835</v>
+        <v>7.929671259609279</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.253147317888931</v>
+        <v>2.382020129966463</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3807812808135367</v>
+        <v>0.1733560546019959</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.07024582356696385</v>
+        <v>0.1496022564410211</v>
       </c>
       <c r="E18">
-        <v>0.3082565307105369</v>
+        <v>0.1755181840630868</v>
       </c>
       <c r="F18">
-        <v>0.5188150593255187</v>
+        <v>0.9105491281243374</v>
       </c>
       <c r="G18">
-        <v>0.0007280881226205224</v>
+        <v>0.002408503989944953</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.690715174594132</v>
+        <v>0.2756751775657875</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>23.60388254437652</v>
+        <v>7.745704301134651</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.173902261599437</v>
+        <v>2.387347954499518</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3774309897356716</v>
+        <v>0.1724393710299239</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.06986324395357002</v>
+        <v>0.1497078004079881</v>
       </c>
       <c r="E19">
-        <v>0.3050095826953623</v>
+        <v>0.175080068212722</v>
       </c>
       <c r="F19">
-        <v>0.5119381327714549</v>
+        <v>0.9122284909979896</v>
       </c>
       <c r="G19">
-        <v>0.0007288235920764434</v>
+        <v>0.002408864090982412</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.6831234561650632</v>
+        <v>0.2743988076873762</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>23.37887604373753</v>
+        <v>7.683387475022244</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.147633735438546</v>
+        <v>2.38921706219341</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.392545573592912</v>
+        <v>0.1765691891744297</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.07163270492636542</v>
+        <v>0.1492407585362443</v>
       </c>
       <c r="E20">
-        <v>0.3198112322326878</v>
+        <v>0.1770637612258241</v>
       </c>
       <c r="F20">
-        <v>0.5437214660700675</v>
+        <v>0.9047747056681317</v>
       </c>
       <c r="G20">
-        <v>0.000725509318280817</v>
+        <v>0.002407252254508546</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.7176879311979008</v>
+        <v>0.2801605799740798</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>24.39639064496203</v>
+        <v>7.963705785129434</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.268088594926439</v>
+        <v>2.381065115790932</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4440646731866451</v>
+        <v>0.1905255829701389</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.07852636185561579</v>
+        <v>0.147810584155863</v>
       </c>
       <c r="E21">
-        <v>0.3733593263436958</v>
+        <v>0.1839432811699666</v>
       </c>
       <c r="F21">
-        <v>0.6669501491948964</v>
+        <v>0.8815602395023419</v>
       </c>
       <c r="G21">
-        <v>0.0007142594528147578</v>
+        <v>0.002401987659268212</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.8418891818381411</v>
+        <v>0.2998390810163869</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>27.91567317481679</v>
+        <v>8.903561970232431</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.716892630816147</v>
+        <v>2.358258273775277</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4783828512788801</v>
+        <v>0.1997065850139137</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.08389882177838359</v>
+        <v>0.1469800784874025</v>
       </c>
       <c r="E22">
-        <v>0.4118994815493551</v>
+        <v>0.1886024239513517</v>
       </c>
       <c r="F22">
-        <v>0.7622683404283919</v>
+        <v>0.8677727619983528</v>
       </c>
       <c r="G22">
-        <v>0.0007067739611571231</v>
+        <v>0.002398658776785032</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.9305731811611366</v>
+        <v>0.3129451041353377</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>30.31006793539223</v>
+        <v>9.516376056101763</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.049821836101756</v>
+        <v>2.34682389860842</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4600003541028599</v>
+        <v>0.1948010814095937</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.08094024494256047</v>
+        <v>0.1474137625359191</v>
       </c>
       <c r="E23">
-        <v>0.3909541651368684</v>
+        <v>0.186100637808714</v>
       </c>
       <c r="F23">
-        <v>0.7098588051738801</v>
+        <v>0.8750033480019397</v>
       </c>
       <c r="G23">
-        <v>0.0007107847561305656</v>
+        <v>0.002400425274694197</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.8824433846464359</v>
+        <v>0.3059273153248228</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>29.02208638554112</v>
+        <v>9.189434545315464</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.86801699259658</v>
+        <v>2.35260542349647</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3917130111262423</v>
+        <v>0.1763420941068006</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.07153231774124436</v>
+        <v>0.1492658846682886</v>
       </c>
       <c r="E24">
-        <v>0.3189855810129316</v>
+        <v>0.1769540265468521</v>
       </c>
       <c r="F24">
-        <v>0.5419198822235956</v>
+        <v>0.9051772039613439</v>
       </c>
       <c r="G24">
-        <v>0.0007256916452874125</v>
+        <v>0.0024073401991857</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.7157627670851667</v>
+        <v>0.2798429846364456</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>24.34017843905008</v>
+        <v>7.948319554267357</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.261323052499705</v>
+        <v>2.381495683216144</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3202336415294695</v>
+        <v>0.1566906398686001</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.06416207860371514</v>
+        <v>0.1517073783763863</v>
       </c>
       <c r="E25">
-        <v>0.2524317606116853</v>
+        <v>0.1677682861673588</v>
       </c>
       <c r="F25">
-        <v>0.4091487512906369</v>
+        <v>0.9435321719888705</v>
       </c>
       <c r="G25">
-        <v>0.0007414856926551599</v>
+        <v>0.002415283583991111</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.5593507888502813</v>
+        <v>0.2527161236283035</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>19.57965400566931</v>
+        <v>6.603190885150184</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.736640323418612</v>
+        <v>2.427201531225904</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_161/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_161/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1424448227877377</v>
+        <v>0.268932449969256</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1538830668338065</v>
+        <v>0.06036904936811283</v>
       </c>
       <c r="E2">
-        <v>0.1615681961842341</v>
+        <v>0.2096017892161015</v>
       </c>
       <c r="F2">
-        <v>0.9766215052929894</v>
+        <v>0.3404048155515795</v>
       </c>
       <c r="G2">
-        <v>0.002421554833943978</v>
+        <v>0.0007531109975795499</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2335619647207068</v>
+        <v>0.4570866768692525</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>5.60687900451768</v>
+        <v>16.22778931265933</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.47296806659557</v>
+        <v>1.428018518516836</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1329302348927399</v>
+        <v>0.2347761909988435</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1555917809322693</v>
+        <v>0.05855233551228167</v>
       </c>
       <c r="E3">
-        <v>0.1577078460882788</v>
+        <v>0.183232164056804</v>
       </c>
       <c r="F3">
-        <v>1.00199806685967</v>
+        <v>0.3072468806895827</v>
       </c>
       <c r="G3">
-        <v>0.002426071402750196</v>
+        <v>0.0007610773908070427</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2210698601333831</v>
+        <v>0.3932545432049181</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>4.9278393971139</v>
+        <v>14.01688458277275</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.511344351416767</v>
+        <v>1.254690322211673</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1271576539167114</v>
+        <v>0.2140451142058737</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1567560085854325</v>
+        <v>0.05774189046653078</v>
       </c>
       <c r="E4">
-        <v>0.1555030991260651</v>
+        <v>0.168047429563444</v>
       </c>
       <c r="F4">
-        <v>1.019011050025611</v>
+        <v>0.2922796524827405</v>
       </c>
       <c r="G4">
-        <v>0.002428976965463307</v>
+        <v>0.0007660359436901189</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2136342219636447</v>
+        <v>0.356104117380184</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>4.508989111625823</v>
+        <v>12.68028674445557</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.538473015305158</v>
+        <v>1.162584972426686</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1248228521123451</v>
+        <v>0.2056497619231834</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1572593140157252</v>
+        <v>0.05748000952080901</v>
       </c>
       <c r="E5">
-        <v>0.1546458931454069</v>
+        <v>0.1620745238783172</v>
       </c>
       <c r="F5">
-        <v>1.026300364996601</v>
+        <v>0.2873775754564463</v>
       </c>
       <c r="G5">
-        <v>0.002430194418517894</v>
+        <v>0.0007680765291628518</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2106622849612592</v>
+        <v>0.3413963983393273</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>4.337822420834954</v>
+        <v>12.13973619033021</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.550415171844747</v>
+        <v>1.128219412607535</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1244362248811797</v>
+        <v>0.2042586895450853</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.157344629650467</v>
+        <v>0.0574404349509976</v>
       </c>
       <c r="E6">
-        <v>0.1545060354371373</v>
+        <v>0.1610947052348166</v>
       </c>
       <c r="F6">
-        <v>1.027532169282487</v>
+        <v>0.2866316257858443</v>
       </c>
       <c r="G6">
-        <v>0.002430398597274582</v>
+        <v>0.0007684166527008267</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2101722855981052</v>
+        <v>0.3389780669560025</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>4.309371256298647</v>
+        <v>12.05019714865233</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.552451451505618</v>
+        <v>1.122692722576801</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1271260946575126</v>
+        <v>0.2139316878814981</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1567626795086312</v>
+        <v>0.05773809185144074</v>
       </c>
       <c r="E7">
-        <v>0.1554913720177922</v>
+        <v>0.1679660525897333</v>
       </c>
       <c r="F7">
-        <v>1.019107918048888</v>
+        <v>0.2922088894510892</v>
       </c>
       <c r="G7">
-        <v>0.002428993248955146</v>
+        <v>0.000766063379247497</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.213593907013987</v>
+        <v>0.355904117337289</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>4.506682647289523</v>
+        <v>12.67298137436401</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.538630492544883</v>
+        <v>1.162109212493533</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1391498514531122</v>
+        <v>0.2571003460054584</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1544483094521283</v>
+        <v>0.05967390763482427</v>
       </c>
       <c r="E8">
-        <v>0.1602025567087537</v>
+        <v>0.2002759025998557</v>
       </c>
       <c r="F8">
-        <v>0.9850720228673566</v>
+        <v>0.3277508673968157</v>
       </c>
       <c r="G8">
-        <v>0.00242308475031481</v>
+        <v>0.0007558458341815344</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2292054767660545</v>
+        <v>0.4345998254991059</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>5.373143669790153</v>
+        <v>15.46039421686325</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.485454436807942</v>
+        <v>1.365005327986125</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1632755997721205</v>
+        <v>0.3440727430142658</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.150826009249684</v>
+        <v>0.06634903661035452</v>
       </c>
       <c r="E9">
-        <v>0.1707736206860346</v>
+        <v>0.2737039037331144</v>
       </c>
       <c r="F9">
-        <v>0.9298492921190089</v>
+        <v>0.4486463168718231</v>
       </c>
       <c r="G9">
-        <v>0.002412542586825175</v>
+        <v>0.0007361798877721407</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2617234804396418</v>
+        <v>0.6096302978752846</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>7.057192597014875</v>
+        <v>21.15399934506047</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.409897481932347</v>
+        <v>1.899368548120549</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1813318817857237</v>
+        <v>0.4100465400393603</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1487280798060482</v>
+        <v>0.07382270244615796</v>
       </c>
       <c r="E10">
-        <v>0.1793820175676686</v>
+        <v>0.3374518987284816</v>
       </c>
       <c r="F10">
-        <v>0.8965233744792727</v>
+        <v>0.5829749343908901</v>
       </c>
       <c r="G10">
-        <v>0.002405425468884395</v>
+        <v>0.0007216817846607733</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2868410619461912</v>
+        <v>0.7587432795572084</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>8.285668969970743</v>
+        <v>25.5826412106955</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.372491108661535</v>
+        <v>2.413854101316275</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1896177386592512</v>
+        <v>0.4406907797476975</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1478971968063263</v>
+        <v>0.07803283189402777</v>
       </c>
       <c r="E11">
-        <v>0.183488063403324</v>
+        <v>0.3696990698462059</v>
       </c>
       <c r="F11">
-        <v>0.882984249735749</v>
+        <v>0.6581613113790254</v>
       </c>
       <c r="G11">
-        <v>0.002402322265558181</v>
+        <v>0.0007149950931281255</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2985498045417785</v>
+        <v>0.8334378053047686</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>8.84274510945886</v>
+        <v>27.68257390005851</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.359534969321601</v>
+        <v>2.685655940566903</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.1927656611223512</v>
+        <v>0.4524042454348915</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1476004258944812</v>
+        <v>0.07977243455776062</v>
       </c>
       <c r="E12">
-        <v>0.1850708444095375</v>
+        <v>0.3825034487314412</v>
       </c>
       <c r="F12">
-        <v>0.8780944770312615</v>
+        <v>0.6891163835324363</v>
       </c>
       <c r="G12">
-        <v>0.002401166346932569</v>
+        <v>0.0007124411452207156</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.3030255708276286</v>
+        <v>0.8629799468109667</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>9.053450656428538</v>
+        <v>28.49355409468996</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.355223417806769</v>
+        <v>2.795238121051881</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1920872454431333</v>
+        <v>0.4498763578346257</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1476635443611656</v>
+        <v>0.07939076756937169</v>
       </c>
       <c r="E13">
-        <v>0.1847287132261783</v>
+        <v>0.3797170302781865</v>
       </c>
       <c r="F13">
-        <v>0.8791369617478466</v>
+        <v>0.6823306292464082</v>
       </c>
       <c r="G13">
-        <v>0.002401414442876239</v>
+        <v>0.0007129923168758043</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3020597489515637</v>
+        <v>0.8565565004628013</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>9.008082317804622</v>
+        <v>28.31812725643829</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.35612536673753</v>
+        <v>2.771318747149991</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.1898765152999005</v>
+        <v>0.4416521489714853</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1478724225541725</v>
+        <v>0.07817284286275594</v>
       </c>
       <c r="E14">
-        <v>0.1836177169223632</v>
+        <v>0.3707397600804114</v>
       </c>
       <c r="F14">
-        <v>0.8825771877054009</v>
+        <v>0.6606551855639395</v>
       </c>
       <c r="G14">
-        <v>0.002402226783446077</v>
+        <v>0.0007147854735343663</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2989171808151525</v>
+        <v>0.8358412492936935</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>8.86008489141409</v>
+        <v>27.74895406053787</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.359168275280723</v>
+        <v>2.694529809975251</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.1885237109988509</v>
+        <v>0.4366293995242216</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1480026966300159</v>
+        <v>0.07744674910925653</v>
       </c>
       <c r="E15">
-        <v>0.1829408522572038</v>
+        <v>0.3653224929947072</v>
       </c>
       <c r="F15">
-        <v>0.8847154383446991</v>
+        <v>0.6477173689991957</v>
       </c>
       <c r="G15">
-        <v>0.00240272686138177</v>
+        <v>0.0007158806947766265</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2969977654434786</v>
+        <v>0.823325531642098</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>8.769400232868691</v>
+        <v>27.40249392531535</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.361109909134598</v>
+        <v>2.648402809455405</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.1807918209862436</v>
+        <v>0.408058073111718</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1487848739149769</v>
+        <v>0.07356614825166474</v>
       </c>
       <c r="E16">
-        <v>0.1791175509937091</v>
+        <v>0.3354198428934225</v>
       </c>
       <c r="F16">
-        <v>0.8974411565003635</v>
+        <v>0.5783813841638761</v>
       </c>
       <c r="G16">
-        <v>0.002405630964131436</v>
+        <v>0.0007221162390021592</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2860816628537037</v>
+        <v>0.7540213876365129</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>8.249227768664127</v>
+        <v>25.44740303910197</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.373420445626437</v>
+        <v>2.396949364935921</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1760669158413037</v>
+        <v>0.3907043959982559</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1492964159502677</v>
+        <v>0.071411160990138</v>
       </c>
       <c r="E17">
-        <v>0.1768211578577592</v>
+        <v>0.3179869657989087</v>
       </c>
       <c r="F17">
-        <v>0.9056660551924125</v>
+        <v>0.5397453031282424</v>
       </c>
       <c r="G17">
-        <v>0.002407446869872795</v>
+        <v>0.0007259125606268269</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2794582614743746</v>
+        <v>0.7134338592696139</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>7.929671259609279</v>
+        <v>24.27210577794784</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.382020129966463</v>
+        <v>2.25314731788896</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1733560546019959</v>
+        <v>0.3807812808127977</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1496022564410211</v>
+        <v>0.07024582356712727</v>
       </c>
       <c r="E18">
-        <v>0.1755181840630868</v>
+        <v>0.3082565307105298</v>
       </c>
       <c r="F18">
-        <v>0.9105491281243374</v>
+        <v>0.5188150593255472</v>
       </c>
       <c r="G18">
-        <v>0.002408503989944953</v>
+        <v>0.0007280881225647307</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2756751775657875</v>
+        <v>0.6907151745941462</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>7.745704301134651</v>
+        <v>23.60388254437635</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.387347954499518</v>
+        <v>2.173902261599437</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.1724393710299239</v>
+        <v>0.3774309897346058</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1497078004079881</v>
+        <v>0.06986324395358423</v>
       </c>
       <c r="E19">
-        <v>0.175080068212722</v>
+        <v>0.3050095826953907</v>
       </c>
       <c r="F19">
-        <v>0.9122284909979896</v>
+        <v>0.5119381327714336</v>
       </c>
       <c r="G19">
-        <v>0.002408864090982412</v>
+        <v>0.0007288235920778726</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2743988076873762</v>
+        <v>0.6831234561650064</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>7.683387475022244</v>
+        <v>23.37887604373782</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.38921706219341</v>
+        <v>2.147633735438575</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.1765691891744297</v>
+        <v>0.3925455735918177</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1492407585362443</v>
+        <v>0.07163270492608831</v>
       </c>
       <c r="E20">
-        <v>0.1770637612258241</v>
+        <v>0.3198112322326736</v>
       </c>
       <c r="F20">
-        <v>0.9047747056681317</v>
+        <v>0.5437214660700604</v>
       </c>
       <c r="G20">
-        <v>0.002407252254508546</v>
+        <v>0.0007255093182791684</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2801605799740798</v>
+        <v>0.717687931197915</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>7.963705785129434</v>
+        <v>24.39639064496185</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.381065115790932</v>
+        <v>2.268088594926496</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.1905255829701389</v>
+        <v>0.4440646731857782</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.147810584155863</v>
+        <v>0.07852636185545236</v>
       </c>
       <c r="E21">
-        <v>0.1839432811699666</v>
+        <v>0.3733593263437314</v>
       </c>
       <c r="F21">
-        <v>0.8815602395023419</v>
+        <v>0.6669501491949106</v>
       </c>
       <c r="G21">
-        <v>0.002401987659268212</v>
+        <v>0.000714259452785984</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2998390810163869</v>
+        <v>0.8418891818381269</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>8.903561970232431</v>
+        <v>27.91567317481679</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.358258273775277</v>
+        <v>2.716892630816091</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.1997065850139137</v>
+        <v>0.4783828512789654</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1469800784874025</v>
+        <v>0.08389882177862518</v>
       </c>
       <c r="E22">
-        <v>0.1886024239513517</v>
+        <v>0.4118994815493622</v>
       </c>
       <c r="F22">
-        <v>0.8677727619983528</v>
+        <v>0.7622683404283777</v>
       </c>
       <c r="G22">
-        <v>0.002398658776785032</v>
+        <v>0.0007067739611580037</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3129451041353377</v>
+        <v>0.9305731811611508</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>9.516376056101763</v>
+        <v>30.31006793539228</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.34682389860842</v>
+        <v>3.049821836101756</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.1948010814095937</v>
+        <v>0.4600003541025899</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1474137625359191</v>
+        <v>0.08094024494253915</v>
       </c>
       <c r="E23">
-        <v>0.186100637808714</v>
+        <v>0.3909541651369111</v>
       </c>
       <c r="F23">
-        <v>0.8750033480019397</v>
+        <v>0.7098588051738943</v>
       </c>
       <c r="G23">
-        <v>0.002400425274694197</v>
+        <v>0.0007107847561854119</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.3059273153248228</v>
+        <v>0.8824433846463648</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>9.189434545315464</v>
+        <v>29.02208638554072</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.35260542349647</v>
+        <v>2.868016992596552</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.1763420941068006</v>
+        <v>0.3917130111265692</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1492658846682886</v>
+        <v>0.07153231774108093</v>
       </c>
       <c r="E24">
-        <v>0.1769540265468521</v>
+        <v>0.3189855810129174</v>
       </c>
       <c r="F24">
-        <v>0.9051772039613439</v>
+        <v>0.5419198822235956</v>
       </c>
       <c r="G24">
-        <v>0.0024073401991857</v>
+        <v>0.0007256916452875332</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2798429846364456</v>
+        <v>0.7157627670851952</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>7.948319554267357</v>
+        <v>24.34017843905013</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.381495683216144</v>
+        <v>2.261323052499648</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.1566906398686001</v>
+        <v>0.3202336415307343</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1517073783763863</v>
+        <v>0.06416207860382883</v>
       </c>
       <c r="E25">
-        <v>0.1677682861673588</v>
+        <v>0.2524317606116568</v>
       </c>
       <c r="F25">
-        <v>0.9435321719888705</v>
+        <v>0.4091487512906369</v>
       </c>
       <c r="G25">
-        <v>0.002415283583991111</v>
+        <v>0.0007414856926578799</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2527161236283035</v>
+        <v>0.559350788850324</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>6.603190885150184</v>
+        <v>19.57965400566928</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.427201531225904</v>
+        <v>1.736640323418527</v>
       </c>
     </row>
   </sheetData>
